--- a/data/income_statement/3digits/total/259_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/259_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>259-Manufacture of other fabricated metal products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>259-Manufacture of other fabricated metal products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6201057.363700001</v>
+        <v>6201057.3637</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7527685.340919999</v>
+        <v>7527685.34092</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>10187316.50678</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>11000723.37928</v>
+        <v>11037591.77154</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12656056.97293</v>
+        <v>12658899.69666</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>15068289.50438</v>
+        <v>15222525.23393</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17023457.31006</v>
+        <v>17323420.65895</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>18542457.26476</v>
+        <v>18626031.26785</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>24986646.58149</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>34968603.14899</v>
+        <v>34988313.89855999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>39796426.40306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>39885071.48619001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>50646769.623</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4663567.283720001</v>
@@ -998,34 +909,39 @@
         <v>7709850.19258</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8410234.844549999</v>
+        <v>8444518.245110001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9656734.30346</v>
+        <v>9659499.91062</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11448071.47602</v>
+        <v>11578081.43527</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13131183.25109</v>
+        <v>13392067.59752</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14119015.63759</v>
+        <v>14183337.81821</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>18724884.78492</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>24143189.91126</v>
+        <v>24162308.05598</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>27013770.53374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27092053.38175</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>35520167.978</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1457801.12657</v>
@@ -1037,37 +953,42 @@
         <v>2350035.12321</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2482818.036890001</v>
+        <v>2484195.03895</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2868546.63755</v>
+        <v>2868623.75412</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3467194.97268</v>
+        <v>3488146.07403</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3704680.92617</v>
+        <v>3740165.42512</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4164453.44702</v>
+        <v>4182652.24789</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>5949588.6947</v>
+        <v>5949588.694700001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>10322085.77786</v>
+        <v>10322649.23073</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>12235763.12368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12244945.36445</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>14459214.92</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>79688.95341</v>
+        <v>79688.95341000002</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>102162.93099</v>
@@ -1076,34 +997,39 @@
         <v>127431.19099</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>107670.49784</v>
+        <v>108878.48748</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>130776.03192</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>153023.05568</v>
+        <v>156297.72463</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>187593.1328</v>
+        <v>191187.63631</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>258988.18015</v>
+        <v>260041.20175</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>312173.10187</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>503327.45987</v>
+        <v>503356.61185</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>546892.74564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>548072.73999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>667386.725</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>154399.26122</v>
@@ -1115,73 +1041,83 @@
         <v>220374.83786</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>257450.55441</v>
+        <v>266367.76991</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>307488.85561</v>
+        <v>307632.90708</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>365036.97686</v>
+        <v>372838.10736</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>426676.8215</v>
+        <v>437451.63956</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>489321.87595</v>
+        <v>495049.95515</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>738005.8632499999</v>
+        <v>738005.8632500001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>973384.3320299999</v>
+        <v>973472.8588</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>922847.24697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>923735.2677999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1093652.205</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>50147.68065000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>53003.01137</v>
+        <v>53003.01137000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>67238.80918000001</v>
+        <v>67238.80918</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>85783.50361</v>
+        <v>86454.26763</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>100663.00178</v>
+        <v>100784.67118</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>138593.67847</v>
+        <v>139800.79564</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>141324.55168</v>
+        <v>142553.24065</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>184124.04399</v>
+        <v>184887.46817</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>330233.59416</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>348782.38295</v>
+        <v>348869.79926</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>338526.96613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>339163.9092999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>411672.34</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>85256.84248000001</v>
@@ -1193,34 +1129,39 @@
         <v>136758.37084</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>144236.61317</v>
+        <v>152483.06465</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>180947.80465</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>193648.27672</v>
+        <v>199681.32175</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>235397.73071</v>
+        <v>243887.61827</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>256434.91976</v>
+        <v>261397.7267</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>340810.1244300001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>439816.7056099999</v>
+        <v>439816.70561</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>458280.35185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>458298.21344</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>542939.915</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>18994.73809</v>
@@ -1235,31 +1176,36 @@
         <v>27430.43763</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>25878.04918</v>
+        <v>25900.43125</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>32795.02166999999</v>
+        <v>33355.98997</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>49954.53911</v>
+        <v>51010.78064</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>48762.91220000001</v>
+        <v>48764.76028</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>66962.14465999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>184785.24347</v>
+        <v>184786.35393</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>126039.92899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>126273.14506</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>139039.95</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>6046658.10248</v>
@@ -1271,34 +1217,39 @@
         <v>9966941.668919999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>10743272.82487</v>
+        <v>10771224.00163</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>12348568.11732</v>
+        <v>12351266.78958</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14703252.52752</v>
+        <v>14849687.12657</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>16596780.48856</v>
+        <v>16885969.01939</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18053135.38881</v>
+        <v>18130981.3127</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>24248640.71824</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>33995218.81696</v>
+        <v>34014841.03976</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>38873579.15609001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>38961336.21839</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>49553117.418</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>4956670.691219999</v>
@@ -1310,112 +1261,127 @@
         <v>8314901.96866</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>9046232.9954</v>
+        <v>9065660.06869</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10213635.87421</v>
+        <v>10215417.24037</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12200606.1205</v>
+        <v>12307027.49124</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>13440313.90142</v>
+        <v>13683595.42655</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>14443273.98442</v>
+        <v>14499807.7529</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>19645423.32167</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>27019099.10711</v>
+        <v>27037691.69052</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>31312764.00822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>31388412.36959</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>39517464.256</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4196603.10009</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5148835.60827</v>
+        <v>5148835.608270001</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>6956559.543149999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7625969.51655</v>
+        <v>7636560.50042</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8606297.286010001</v>
+        <v>8606777.13981</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>10128308.75427</v>
+        <v>10230065.94267</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>11343040.36365</v>
+        <v>11569881.91989</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>12290464.0109</v>
+        <v>12342003.72923</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>16814658.78272</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>23098414.58612</v>
+        <v>23103002.24781</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>26880890.43282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>26936538.90285</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>33493281.721</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>625551.4521900001</v>
+        <v>625551.45219</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>868465.6263799999</v>
+        <v>868465.62638</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>1184488.40718</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1202913.10949</v>
+        <v>1211749.19891</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1341763.09682</v>
+        <v>1342052.1769</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1744292.62893</v>
+        <v>1748525.73586</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1698391.16555</v>
+        <v>1711211.63505</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1726361.24215</v>
+        <v>1731164.9947</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2257769.98737</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3187922.00012</v>
+        <v>3200517.20798</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3863022.30905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3881611.702430001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5137932.175</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>87075.06171000001</v>
@@ -1430,31 +1396,36 @@
         <v>151064.48948</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>213894.53813</v>
+        <v>214906.97041</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>249290.99633</v>
+        <v>249365.18085</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>314179.07604</v>
+        <v>315216.14624</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>308692.43325</v>
+        <v>308694.08385</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>440526.72588</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>525745.37159</v>
+        <v>527116.9498600001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>356213.73453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>357574.23249</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>409303.236</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>47441.07723</v>
@@ -1466,34 +1437,39 @@
         <v>65617.18488</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>66285.87988000001</v>
+        <v>66285.87987999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>51680.95325</v>
+        <v>51680.95324999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>78713.74097</v>
+        <v>79070.63186000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>84703.29618</v>
+        <v>87285.72537</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>117756.29812</v>
+        <v>117944.94512</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>132467.8257</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>207017.14928</v>
+        <v>207055.28487</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>212637.53182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>212687.53182</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>476947.124</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1089987.41126</v>
@@ -1505,37 +1481,42 @@
         <v>1652039.70026</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1697039.82947</v>
+        <v>1705563.93294</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2134932.24311</v>
+        <v>2135849.54921</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2502646.40702</v>
+        <v>2542659.63533</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3156466.58714</v>
+        <v>3202373.59284</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3609861.40439</v>
+        <v>3631173.5598</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4603217.396570001</v>
+        <v>4603217.39657</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6976119.70985</v>
+        <v>6977149.349239999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7560815.14787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7572923.8488</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10035653.162</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>607714.5735999999</v>
+        <v>607714.5736</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>706290.82352</v>
@@ -1544,34 +1525,39 @@
         <v>862391.7974</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>984661.4852999999</v>
+        <v>991209.23275</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1150029.01996</v>
+        <v>1150519.01805</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1340349.82257</v>
+        <v>1357812.09323</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1558196.55432</v>
+        <v>1585871.74759</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1794344.48443</v>
+        <v>1806151.10528</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2151165.58295</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2752149.95678</v>
+        <v>2754480.117310001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3252454.81747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3263518.97537</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3806295.53</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2566.977</v>
@@ -1580,7 +1566,7 @@
         <v>4310.14574</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>6240.286929999999</v>
+        <v>6240.28693</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>10982.20599</v>
@@ -1589,28 +1575,33 @@
         <v>17770.61518</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>25180.73716</v>
+        <v>25837.33654</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>33395.13729</v>
+        <v>34207.83369</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>38664.45291</v>
+        <v>39011.82447</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>25718.46493</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>57076.81702</v>
+        <v>57077.01544</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>59750.52288</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>62590.801</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>233228.30074</v>
@@ -1619,76 +1610,86 @@
         <v>291653.32761</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>353314.08298</v>
+        <v>353314.0829799999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>406455.66168</v>
+        <v>411988.5108800001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>465890.9669499999</v>
+        <v>465893.89474</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>558046.14297</v>
+        <v>566316.46759</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>645561.93015</v>
+        <v>655882.21335</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>716721.20359</v>
+        <v>722747.0894900002</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>905353.4766800001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1179866.37146</v>
+        <v>1180022.0873</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1460522.73522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1462900.80166</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1694084.1</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>371919.29586</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>410327.35017</v>
+        <v>410327.3501699999</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>502837.42749</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>567223.6176300001</v>
+        <v>568238.51588</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>666367.43783</v>
+        <v>666854.50813</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>757122.94244</v>
+        <v>765658.2891000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>879239.4868800001</v>
+        <v>895781.70055</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1038958.82793</v>
+        <v>1044392.19132</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1220093.64134</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1515206.7683</v>
+        <v>1517381.01457</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1732181.55937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1740867.65083</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2049620.629</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>482272.83766</v>
@@ -1700,34 +1701,39 @@
         <v>789647.90286</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>712378.3441699999</v>
+        <v>714354.70019</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>984903.2231500001</v>
+        <v>985330.5311599999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1162296.58445</v>
+        <v>1184847.5421</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1598270.03282</v>
+        <v>1616501.84525</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1815516.91996</v>
+        <v>1825022.45452</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2452051.81362</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4223969.753070001</v>
+        <v>4222669.23193</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4308360.330399999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4309404.873430001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6229357.632</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>299799.92338</v>
@@ -1739,43 +1745,48 @@
         <v>494716.25664</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>369935.75895</v>
+        <v>370892.4275</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>468951.97523</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>523339.7474000001</v>
+        <v>531620.4283800001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1021872.99483</v>
+        <v>1031100.2399</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1006850.24204</v>
+        <v>1009813.08729</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1688582.70175</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>5865292.80163</v>
+        <v>5866433.221150001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2804196.24907</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2805097.38142</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6125953.293</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>747.3045800000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>6773.17525</v>
+        <v>6773.175249999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>617.8121600000001</v>
+        <v>617.8121599999999</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>10862.65622</v>
@@ -1790,7 +1801,7 @@
         <v>1637.70852</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>6609.429609999999</v>
+        <v>6609.42961</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>326.21113</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>199.55969</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>7155.822</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>28223</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9323.697979999999</v>
+        <v>9323.697980000001</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>122838.0684</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>15589.96545</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>19586.322</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>16378.68385</v>
@@ -1856,40 +1877,45 @@
         <v>18713.00157</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>24724.90384</v>
+        <v>24725.39495</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>22927.15042</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>26050.05508</v>
+        <v>26724.28214</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>43928.38445999999</v>
+        <v>44323.54551</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>47896.09112999999</v>
+        <v>48073.58197</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>69882.61584</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>125267.74984</v>
+        <v>126248.21717</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>141041.43207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>141152.55409</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>144167.969</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1226.69077</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>769.3513300000001</v>
+        <v>769.35133</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>753.54303</v>
@@ -1901,13 +1927,13 @@
         <v>1789.4647</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>613.14918</v>
+        <v>708.75631</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>1411.9927</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1026.92209</v>
+        <v>1037.59881</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>953.8757000000001</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1692.67862</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2125.275</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2556.80206</v>
@@ -1931,22 +1962,22 @@
         <v>2558.12127</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3849.634600000001</v>
+        <v>3849.6346</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2726.50056</v>
+        <v>2819.71766</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>5608.271549999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3777.98388</v>
+        <v>3914.98388</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>11558.23477</v>
+        <v>11583.73477</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4855.9017</v>
+        <v>4986.72537</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>9910.69116</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>11196.29678</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>15758.71</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1227.34399</v>
@@ -1982,7 +2018,7 @@
         <v>3943.41877</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2853.50625</v>
+        <v>2853.78179</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>3415.61212</v>
@@ -1994,13 +2030,18 @@
         <v>4387.98535</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7764.802280000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7765.095490000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>20858.084</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>216342.13548</v>
@@ -2012,34 +2053,39 @@
         <v>314970.75936</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>257037.58627</v>
+        <v>257058.84587</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>355570.45649</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>415578.17701</v>
+        <v>422140.35415</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>876228.9126199998</v>
+        <v>884109.7049300001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>817020.47196</v>
+        <v>819044.6189199999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1442558.1343</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5487383.267650001</v>
+        <v>5487427.914100001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2416937.55074</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2417208.74804</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>5633904.219</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2863.8926</v>
@@ -2057,13 +2103,13 @@
         <v>6034.064299999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>11440.62226</v>
+        <v>11528.53041</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>13807.04779</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>16762.32983</v>
+        <v>16848.2746</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>19129.76346</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>34387.77598999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>75822.93700000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>39.46829</v>
@@ -2090,7 +2141,7 @@
         <v>1.90282</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>565.65619</v>
+        <v>565.6561899999999</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>152.94651</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>362.48419</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>89.289</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>30194.60176</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>31429.14405</v>
+        <v>31429.14405000001</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>29563.28422</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>46012.00012</v>
+        <v>46853.70086</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>55254.26128</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>44438.28564</v>
+        <v>45162.04714</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>61340.40483</v>
+        <v>62265.921</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>80708.92567</v>
+        <v>81242.68796000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>111908.47633</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>160270.28973</v>
+        <v>160385.59547</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>175023.70326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>175542.22308</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>206484.666</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>256026.93419</v>
@@ -2165,37 +2226,42 @@
         <v>238957.4757</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>442878.3654199999</v>
+        <v>442878.36542</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>251603.00636</v>
+        <v>252164.77441</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>517724.56777</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>509828.46467</v>
+        <v>516674.96034</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>984398.6729700001</v>
+        <v>993925.7900999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1002189.31325</v>
+        <v>1006659.42368</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1568117.70934</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>5524823.07355</v>
+        <v>5525023.78232</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2652537.82054</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2653388.83096</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5541699.247</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1697.1367</v>
@@ -2213,13 +2279,13 @@
         <v>4004.20183</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6877.44411</v>
+        <v>6882.93212</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>5929.697279999999</v>
+        <v>5934.22554</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7791.6647</v>
+        <v>7871.849439999999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>11627.42421</v>
@@ -2228,13 +2294,18 @@
         <v>19312.3685</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>20217.60576</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>20217.89246</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>19501.224</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>14260.7871</v>
@@ -2246,19 +2317,19 @@
         <v>12329.36129</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>27200.28828</v>
+        <v>27734.18782</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>23111.18279</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>31499.70222</v>
+        <v>32422.16987</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>27624.30965</v>
+        <v>27680.42029</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>62383.16782</v>
+        <v>63301.27661</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>40351.62018999999</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>109786.08459</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>58307.873</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>66.97645</v>
+        <v>66.97644999999999</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>360.9122400000001</v>
@@ -2288,7 +2364,7 @@
         <v>376.54808</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>977.1408999999999</v>
+        <v>977.1409</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>6801.89275</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>83.21668</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1090.789</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>220233.43566</v>
@@ -2324,34 +2405,39 @@
         <v>398120.07687</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>197617.33287</v>
+        <v>197645.20138</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>448710.57801</v>
+        <v>448710.5780100001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>425342.89312</v>
+        <v>431065.15195</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>917588.89008</v>
+        <v>926952.0940299999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>889013.3419</v>
+        <v>892358.0764299999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1466982.46741</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5310731.06478</v>
+        <v>5310924.465179999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2443547.61009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2444353.16793</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5327449.262</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2206.08675</v>
@@ -2369,28 +2455,33 @@
         <v>10930.04343</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>11510.59471</v>
+        <v>11619.83211</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>15345.71995</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>16787.29929</v>
+        <v>16789.98098</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>22944.08819</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>44139.81471</v>
+        <v>44139.81470999999</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>32578.91632</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>84470.083</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>121.9882</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>23.22849</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>17440.52333</v>
@@ -2447,28 +2543,33 @@
         <v>29988.12081</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>27795.35289</v>
+        <v>27882.39667</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>17798.05135</v>
+        <v>17901.32563</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>25314.33803</v>
+        <v>25438.73871</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>26042.51146</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>49434.93342999999</v>
+        <v>49442.2418</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>46301.15861</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>46346.32448999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>50880.005</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>154273.37513</v>
@@ -2480,34 +2581,39 @@
         <v>256993.96818</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>218752.20888</v>
+        <v>223405.73939</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>314940.03315</v>
+        <v>314940.4889</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>337960.01287</v>
+        <v>339557.11676</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>594231.6567200001</v>
+        <v>596693.08887</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>531102.24853</v>
+        <v>534161.0370700001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>748138.3743800002</v>
+        <v>748138.3743799998</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1569204.36582</v>
+        <v>1569544.02152</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1020962.74952</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1023411.04451</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1226781.64</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>127521.51132</v>
@@ -2519,34 +2625,39 @@
         <v>192366.47779</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>181560.41948</v>
+        <v>186213.94999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>233286.04126</v>
+        <v>233286.49701</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>252024.29066</v>
+        <v>253609.71067</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>395350.0336799999</v>
+        <v>397800.73681</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>412643.02217</v>
+        <v>414126.89034</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>555992.71002</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1098296.86328</v>
+        <v>1098636.51898</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>826978.44965</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>828536.38422</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>918268.301</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>26751.86381</v>
@@ -2558,19 +2669,19 @@
         <v>64627.49039</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>37191.78940000001</v>
+        <v>37191.7894</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>81653.99189000002</v>
+        <v>81653.99188999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>85935.72220999999</v>
+        <v>85947.40609</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>198881.62304</v>
+        <v>198892.35206</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>118459.22636</v>
+        <v>120034.14673</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>192145.66436</v>
@@ -2579,13 +2690,18 @@
         <v>470907.50254</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>193984.29987</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>194874.66029</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>308513.339</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>371772.45172</v>
@@ -2594,82 +2710,92 @@
         <v>367590.12679</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>584491.8258999999</v>
+        <v>584491.8259000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>611958.8878800001</v>
+        <v>609676.61389</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>621190.5974600001</v>
+        <v>621617.44972</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>837847.85431</v>
+        <v>860235.8933800001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1041512.69796</v>
+        <v>1056983.20618</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1289075.60022</v>
+        <v>1294015.08106</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1824378.43165</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2995235.11533</v>
+        <v>2994534.64924</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3439056.00941</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3437702.37938</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>5586830.038</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>62427.15207000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>49327.24768000001</v>
+        <v>49327.24768</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>58732.22898000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>70889.8282</v>
+        <v>70906.4743</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>84449.0796</v>
+        <v>84470.60818000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>78483.90062999999</v>
+        <v>79372.09782000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>127309.58939</v>
+        <v>128569.64789</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>112125.28546</v>
+        <v>112364.1837</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>147307.77277</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>199191.32215</v>
+        <v>199243.20445</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>245776.41068</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>248514.83112</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>251062.335</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2688.17496</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>919.9671800000001</v>
+        <v>919.96718</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>725.1765</v>
@@ -2696,13 +2822,18 @@
         <v>1798.30748</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5564.494610000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5565.0316</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>12832.223</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>59738.97711</v>
@@ -2711,82 +2842,92 @@
         <v>48407.2805</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>58007.05248000001</v>
+        <v>58007.05248</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>69122.75821</v>
+        <v>69139.40431</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>82512.60119</v>
+        <v>82534.12977</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>77726.77715000001</v>
+        <v>78614.97434</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>123447.55367</v>
+        <v>124707.61217</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>110536.5374</v>
+        <v>110775.43564</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>146447.57028</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>197393.01467</v>
+        <v>197444.89697</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>240211.91607</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>242949.79952</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>238230.112</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>35727.59275</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>40268.34626</v>
+        <v>40268.34626000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>222631.78071</v>
+        <v>222631.7807100001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>59315.16374</v>
+        <v>59563.80631</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>51903.83878</v>
+        <v>51918.75191</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>108550.69079</v>
+        <v>109764.84833</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>68357.02656</v>
+        <v>68727.5652</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>206242.99234</v>
+        <v>207414.96006</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>123517.18518</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>264857.2322</v>
+        <v>265823.5192</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>161463.8475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>162047.15693</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>198538.211</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1735.9049</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2623.14452</v>
+        <v>2623.144519999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>3482.35251</v>
@@ -2798,7 +2939,7 @@
         <v>7332.97255</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7838.82261</v>
+        <v>7838.822609999999</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>11392.72105</v>
@@ -2810,16 +2951,21 @@
         <v>24082.34391</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>15049.18795</v>
+        <v>15070.9805</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>28470.50898</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>28472.61598000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>56538.877</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>4356.1104</v>
@@ -2831,13 +2977,13 @@
         <v>29127.79274</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2962.55881</v>
+        <v>3211.20138</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3233.51352</v>
+        <v>3236.044269999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8888.927370000001</v>
+        <v>8895.171859999999</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>4304.06476</v>
@@ -2846,19 +2992,24 @@
         <v>5674.87879</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5852.48236</v>
+        <v>5852.482359999999</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>17584.88082</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11515.1578</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>11518.57249</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>8847.009</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>29635.57745</v>
@@ -2873,31 +3024,36 @@
         <v>47665.23654</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>41337.35270999999</v>
+        <v>41349.73509</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>91822.94081</v>
+        <v>93030.85386</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>52660.24075</v>
+        <v>53030.77939</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>188573.63514</v>
+        <v>189745.60286</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>93582.35891</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>232223.16343</v>
+        <v>233167.65788</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>121478.18072</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>122055.96846</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>133152.325</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>398472.01104</v>
@@ -2906,37 +3062,42 @@
         <v>376649.02821</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>420592.2741699999</v>
+        <v>420592.27417</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>623533.5523399999</v>
+        <v>621019.28188</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>653735.83828</v>
+        <v>654169.30599</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>807781.06415</v>
+        <v>829843.14287</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1100465.26079</v>
+        <v>1116825.28887</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1194957.89334</v>
+        <v>1198964.3047</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1848169.01924</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2929569.20528</v>
+        <v>2927954.33449</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3523368.572589999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3524170.05357</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5639354.162</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>65982.26060000001</v>
@@ -2945,37 +3106,42 @@
         <v>68928.03528999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>93136.13149000001</v>
+        <v>93136.13149</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>107618.49429</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>110512.21168</v>
+        <v>110540.29119</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>136831.48728</v>
+        <v>141283.33391</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>179291.695</v>
+        <v>180261.16192</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>199332.21189</v>
+        <v>199676.37621</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>251191.14481</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>475367.96758</v>
+        <v>475619.91089</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>519689.39375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>521278.93616</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>793175.7830000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>332489.75044</v>
@@ -2987,31 +3153,34 @@
         <v>327456.14268</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>515915.0580499999</v>
+        <v>513400.78759</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>543223.6266000001</v>
+        <v>543629.0148</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>670949.57687</v>
+        <v>688559.8089600001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>921173.5657899999</v>
+        <v>936564.1269499999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>995625.68145</v>
+        <v>999287.92849</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1596977.87443</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2454201.2377</v>
+        <v>2452334.4236</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3003679.17884</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3002891.11741</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4846178.379</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1786</v>
@@ -3041,31 +3213,34 @@
         <v>1899</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2032</v>
+        <v>2044</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2052</v>
+        <v>2075</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2211</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2157</v>
+        <v>2317</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2396</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>